--- a/ModifiedData/Cu_sys_coll.xlsx
+++ b/ModifiedData/Cu_sys_coll.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,6 +348,9 @@
     <t>E17</t>
   </si>
   <si>
+    <t>x1</t>
+  </si>
+  <si>
     <t>x2</t>
   </si>
   <si>
@@ -355,9 +358,6 @@
   </si>
   <si>
     <t>x5</t>
-  </si>
-  <si>
-    <t>x6</t>
   </si>
 </sst>
 </file>
@@ -1964,11 +1964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233202984"/>
-        <c:axId val="233201808"/>
+        <c:axId val="261732464"/>
+        <c:axId val="261734032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233202984"/>
+        <c:axId val="261732464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,12 +2025,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233201808"/>
+        <c:crossAx val="261734032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233201808"/>
+        <c:axId val="261734032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233202984"/>
+        <c:crossAx val="261732464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3039,7 +3039,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3102,7 +3102,7 @@
         <v>0.84397007029452897</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.1394342831883648</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>1.1086626245216111</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>1.1086626245216111</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>1.4271163556401458</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3270,7 +3270,7 @@
         <v>1.4271163556401458</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>1.7147984280919266</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>1.9661128563728327</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1.8018098050815565</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>1.4696759700589417</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>1.1711829815029453</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>0.94160853985844484</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0.9675840262617057</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>0.24846135929849955</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0.10536051565782635</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0.17435338714477774</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0.26136476413440751</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0.28768207245178085</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>0.35667494393873239</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0.94160853985844484</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0.75502258427803282</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0.57981849525294205</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>0.57981849525294205</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>0.26136476413440751</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0.51082562376599072</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0.69314718055994529</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>0.79850769621777162</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0.67334455326376552</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>1.2039728043259361</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0.91629073187415511</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>1.6607312068216509</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>1.3862943611198906</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0.34249030894677601</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>0.56211891815354131</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>0.59783700075562041</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0.69314718055994529</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0.59783700075562041</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0.46203545959655862</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0.57981849525294205</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4374,10 +4374,10 @@
         <v>-2.9558802241544391E-2</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>-9.950330853168092E-3</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4440,10 +4440,10 @@
         <v>0.10536051565782635</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4474,10 +4474,10 @@
         <v>-0.18232155679395459</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -4506,10 +4506,10 @@
         <v>-0.14842000511827322</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4538,10 +4538,10 @@
         <v>-0.10436001532424288</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4570,10 +4570,10 @@
         <v>1.0050335853501506E-2</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4642,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4674,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4771,10 +4771,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4867,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4899,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4931,10 +4931,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4963,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4997,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5029,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -5061,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5093,10 +5093,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -5125,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
